--- a/painting/A130c.xlsx
+++ b/painting/A130c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbaker/github/dcmi/dcap/painting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ECC9F9A-56DB-3843-A15D-18744577469B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B2EEFE-C229-1A47-AAE9-355FA7A4F425}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38820" yWindow="-28340" windowWidth="51120" windowHeight="28340" xr2:uid="{AAAF9636-5162-F145-914D-17D4807C7D56}"/>
+    <workbookView xWindow="12260" yWindow="-28340" windowWidth="51120" windowHeight="28340" xr2:uid="{AAAF9636-5162-F145-914D-17D4807C7D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -42,15 +42,6 @@
     <t>Entity name</t>
   </si>
   <si>
-    <t>Entity label</t>
-  </si>
-  <si>
-    <t>Property label</t>
-  </si>
-  <si>
-    <t>Value type</t>
-  </si>
-  <si>
     <t>Cardinality</t>
   </si>
   <si>
@@ -81,12 +72,6 @@
     <t>wdt:P170</t>
   </si>
   <si>
-    <t>Instance of</t>
-  </si>
-  <si>
-    <t>Inception</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -117,16 +102,37 @@
     <t>wd:</t>
   </si>
   <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>1..-1</t>
-  </si>
-  <si>
     <t>Artist</t>
   </si>
   <si>
     <t>Instance of "painting"</t>
+  </si>
+  <si>
+    <t>Entity_name</t>
+  </si>
+  <si>
+    <t>Entity_label</t>
+  </si>
+  <si>
+    <t>Property_label</t>
+  </si>
+  <si>
+    <t>Is a</t>
+  </si>
+  <si>
+    <t>Date of inception</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>1,-1</t>
+  </si>
+  <si>
+    <t>Value_type</t>
   </si>
 </sst>
 </file>
@@ -297,7 +303,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -309,6 +315,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -630,7 +640,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="319" zoomScaleNormal="319" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,143 +649,149 @@
     <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
